--- a/B0 PPT-Excel-Mindmap/2021-29-11 Decision Tree.xlsx
+++ b/B0 PPT-Excel-Mindmap/2021-29-11 Decision Tree.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hawlandshutde-my.sharepoint.com/personal/dgreipl_az_haw-landshut_de/Documents/00 Module/.VL16 BW 610 DSML/05 Gitbook DSML/B0 PPT und Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hawlandshutde-my.sharepoint.com/personal/dgreipl_az_haw-landshut_de/Documents/00 Module/.VL16 BW 610 DSML/05 Gitbook DSML/B0 PPT-Excel-Mindmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{DE3CCA13-C139-42B9-A8C9-FF3DD83241CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAF65021-BF77-4AAD-9277-404E036DDD64}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="8_{DE3CCA13-C139-42B9-A8C9-FF3DD83241CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A95AC6E-EECE-4045-9D13-0FE2127439C3}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{193DB63C-A71F-4494-8050-0E4856A0E526}"/>
+    <workbookView xWindow="3780" yWindow="0" windowWidth="17280" windowHeight="10680" xr2:uid="{193DB63C-A71F-4494-8050-0E4856A0E526}"/>
   </bookViews>
   <sheets>
-    <sheet name="Konzept" sheetId="3" r:id="rId1"/>
-    <sheet name="Bad" sheetId="2" r:id="rId2"/>
-    <sheet name="Allgemein" sheetId="1" r:id="rId3"/>
-    <sheet name="GINI" sheetId="4" r:id="rId4"/>
+    <sheet name="InClass" sheetId="5" r:id="rId1"/>
+    <sheet name="Konzept" sheetId="3" r:id="rId2"/>
+    <sheet name="Bad" sheetId="2" r:id="rId3"/>
+    <sheet name="Allgemein" sheetId="1" r:id="rId4"/>
+    <sheet name="GINI" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="44">
   <si>
     <t>Quality</t>
   </si>
@@ -148,6 +149,27 @@
   </si>
   <si>
     <t>sepal_wid</t>
+  </si>
+  <si>
+    <t>petal_len &lt;= 4.8</t>
+  </si>
+  <si>
+    <t># 49</t>
+  </si>
+  <si>
+    <t># 46</t>
+  </si>
+  <si>
+    <t># 3</t>
+  </si>
+  <si>
+    <t># 4</t>
+  </si>
+  <si>
+    <t># 47</t>
+  </si>
+  <si>
+    <t># 51</t>
   </si>
 </sst>
 </file>
@@ -311,14 +333,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -332,7 +349,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -352,6 +374,117 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Gerade Verbindung mit Pfeil 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EA45CF1-6696-49C6-A8EB-77FE543E2927}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2400300" y="2552700"/>
+          <a:ext cx="2346960" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>754380</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Gerade Verbindung mit Pfeil 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2981B19-C4A1-4AB5-8E26-69F80A723CE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4861560" y="2552700"/>
+          <a:ext cx="2232660" cy="441960"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -462,7 +595,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -573,7 +706,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -980,11 +1113,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F45F203-B75A-4B7B-BFA0-E93654A571F5}">
-  <dimension ref="C5:J26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE68F52-B80E-4A2E-8862-5B577951EE12}">
+  <dimension ref="C5:L26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1008,10 +1141,10 @@
       </c>
     </row>
     <row r="8" spans="3:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="3:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F9" s="5" t="s">
@@ -1032,36 +1165,40 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="17"/>
+      <c r="F12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="16"/>
     </row>
     <row r="16" spans="3:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="I16" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="3:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="I16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="3:12" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="5" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="L17">
+        <f>47/(50)</f>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="10" t="s">
         <v>24</v>
       </c>
@@ -1071,7 +1208,7 @@
       </c>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="11" t="s">
         <v>14</v>
       </c>
@@ -1085,60 +1222,60 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C20" s="18" t="s">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C20" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="I20" s="18" t="s">
+      <c r="D20" s="18"/>
+      <c r="I20" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="19"/>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J20" s="18"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
         <v>8</v>
       </c>
       <c r="J22">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23" t="s">
         <v>9</v>
       </c>
       <c r="J23">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F25" s="3">
         <f>+D22+J22</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="7">
         <f>+F25/100</f>
-        <v>0.66</v>
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>
@@ -1156,11 +1293,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B435F-613A-4850-9FC0-F2F9789EE724}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F45F203-B75A-4B7B-BFA0-E93654A571F5}">
   <dimension ref="C5:J26"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1184,10 +1321,10 @@
       </c>
     </row>
     <row r="8" spans="3:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="3:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F9" s="5" t="s">
@@ -1208,20 +1345,20 @@
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="16" spans="3:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="I16" s="13" t="s">
+      <c r="D16" s="14"/>
+      <c r="I16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="13"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="3:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="5" t="s">
@@ -1262,14 +1399,14 @@
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="I20" s="18" t="s">
+      <c r="D20" s="18"/>
+      <c r="I20" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="19"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
@@ -1332,11 +1469,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0630C115-AA6F-40AF-B72A-E65D695AB9D5}">
-  <dimension ref="C5:J25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B435F-613A-4850-9FC0-F2F9789EE724}">
+  <dimension ref="C5:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1350,12 +1487,188 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
+      <c r="J6" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J7" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8" spans="3:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="3:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="F10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="F12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="16" spans="3:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="I16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="3:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="I18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="I20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="3">
+        <f>+D22+J22</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="7">
+        <f>+F25/100</f>
+        <v>0.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="I20:J20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0630C115-AA6F-40AF-B72A-E65D695AB9D5}">
+  <dimension ref="C5:J25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="3:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="3:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F9" s="5" t="s">
@@ -1375,20 +1688,20 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="I16" s="14" t="s">
+      <c r="D16" s="19"/>
+      <c r="I16" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="14"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
@@ -1423,14 +1736,14 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="I20" s="15" t="s">
+      <c r="D20" s="20"/>
+      <c r="I20" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="15"/>
+      <c r="J20" s="20"/>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
@@ -1468,11 +1781,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFD6CFD-7DA4-4C12-A381-B83F2D61EB4F}">
   <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1544,7 +1857,7 @@
       <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="13">
         <f>+(G3*D3+G4*D4)/(D3+D4)</f>
         <v>0.39313131313131305</v>
       </c>
@@ -1711,14 +2024,14 @@
       <c r="F21" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="13">
         <f>+(G19*D19+G20*D20)/(D19+D20)</f>
         <v>0.39313131313131305</v>
       </c>
       <c r="M21" t="s">
         <v>29</v>
       </c>
-      <c r="N21" s="20">
+      <c r="N21" s="13">
         <f>+(N19*K19+N20*K20)/(K19+K20)</f>
         <v>0.46444444444444444</v>
       </c>

--- a/B0 PPT-Excel-Mindmap/2021-29-11 Decision Tree.xlsx
+++ b/B0 PPT-Excel-Mindmap/2021-29-11 Decision Tree.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hawlandshutde-my.sharepoint.com/personal/dgreipl_az_haw-landshut_de/Documents/00 Module/.VL16 BW 610 DSML/05 Gitbook DSML/B0 PPT-Excel-Mindmap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="8_{DE3CCA13-C139-42B9-A8C9-FF3DD83241CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A95AC6E-EECE-4045-9D13-0FE2127439C3}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="8_{DE3CCA13-C139-42B9-A8C9-FF3DD83241CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9DE8428-A48B-4411-ABE1-1E920850FE03}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="0" windowWidth="17280" windowHeight="10680" xr2:uid="{193DB63C-A71F-4494-8050-0E4856A0E526}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{193DB63C-A71F-4494-8050-0E4856A0E526}"/>
   </bookViews>
   <sheets>
-    <sheet name="InClass" sheetId="5" r:id="rId1"/>
-    <sheet name="Konzept" sheetId="3" r:id="rId2"/>
-    <sheet name="Bad" sheetId="2" r:id="rId3"/>
-    <sheet name="Allgemein" sheetId="1" r:id="rId4"/>
-    <sheet name="GINI" sheetId="4" r:id="rId5"/>
+    <sheet name="Empty" sheetId="6" r:id="rId1"/>
+    <sheet name="InClass" sheetId="5" r:id="rId2"/>
+    <sheet name="Konzept" sheetId="3" r:id="rId3"/>
+    <sheet name="Bad" sheetId="2" r:id="rId4"/>
+    <sheet name="Allgemein" sheetId="1" r:id="rId5"/>
+    <sheet name="GINI" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="52">
   <si>
     <t>Quality</t>
   </si>
@@ -170,6 +171,30 @@
   </si>
   <si>
     <t># 51</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>#36</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#14</t>
+  </si>
+  <si>
+    <t>#49</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> petal_wid &lt;= 1.4</t>
+  </si>
+  <si>
+    <t>#35</t>
+  </si>
+  <si>
+    <t>#65</t>
   </si>
 </sst>
 </file>
@@ -393,6 +418,117 @@
         <xdr:cNvPr id="2" name="Gerade Verbindung mit Pfeil 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C87D2C54-14D8-4D5B-8DD7-84B567C2E479}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2400300" y="2552700"/>
+          <a:ext cx="2346960" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>754380</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Gerade Verbindung mit Pfeil 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E09BC1EE-9676-45DE-870C-DA6A8587F9B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4861560" y="2552700"/>
+          <a:ext cx="2232660" cy="441960"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Gerade Verbindung mit Pfeil 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EA45CF1-6696-49C6-A8EB-77FE543E2927}"/>
             </a:ext>
           </a:extLst>
@@ -484,7 +620,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -595,7 +731,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -706,7 +842,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1113,11 +1249,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE68F52-B80E-4A2E-8862-5B577951EE12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139D0AA9-5D4E-4D58-A983-AB4F4F3BF250}">
   <dimension ref="C5:L26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1166,36 +1302,35 @@
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.3">
       <c r="F12" s="15" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="G12" s="16"/>
     </row>
     <row r="16" spans="3:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D16" s="14"/>
       <c r="I16" s="14" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="J16" s="14"/>
     </row>
     <row r="17" spans="3:12" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="5" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17">
-        <f>47/(50)</f>
-        <v>0.94</v>
+        <v>48</v>
+      </c>
+      <c r="L17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.3">
@@ -1237,13 +1372,13 @@
         <v>8</v>
       </c>
       <c r="D22">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I22" t="s">
         <v>8</v>
       </c>
       <c r="J22">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.3">
@@ -1251,13 +1386,13 @@
         <v>9</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23" t="s">
         <v>9</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.3">
@@ -1266,7 +1401,7 @@
       </c>
       <c r="F25" s="3">
         <f>+D22+J22</f>
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.3">
@@ -1275,7 +1410,7 @@
       </c>
       <c r="F26" s="7">
         <f>+F25/100</f>
-        <v>0.93</v>
+        <v>0.84</v>
       </c>
     </row>
   </sheetData>
@@ -1293,11 +1428,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F45F203-B75A-4B7B-BFA0-E93654A571F5}">
-  <dimension ref="C5:J26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE68F52-B80E-4A2E-8862-5B577951EE12}">
+  <dimension ref="C5:L26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1346,35 +1481,39 @@
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.3">
       <c r="F12" s="15" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G12" s="16"/>
     </row>
     <row r="16" spans="3:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="14" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D16" s="14"/>
       <c r="I16" s="14" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="3:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="5" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="L17">
+        <f>47/(50)</f>
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="10" t="s">
         <v>24</v>
       </c>
@@ -1384,7 +1523,7 @@
       </c>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="11" t="s">
         <v>14</v>
       </c>
@@ -1398,7 +1537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="17" t="s">
         <v>23</v>
       </c>
@@ -1408,50 +1547,50 @@
       </c>
       <c r="J20" s="18"/>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
         <v>8</v>
       </c>
       <c r="J22">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23" t="s">
         <v>9</v>
       </c>
       <c r="J23">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F25" s="3">
         <f>+D22+J22</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="7">
         <f>+F25/100</f>
-        <v>0.66</v>
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>
@@ -1469,11 +1608,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B435F-613A-4850-9FC0-F2F9789EE724}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F45F203-B75A-4B7B-BFA0-E93654A571F5}">
   <dimension ref="C5:J26"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1645,6 +1784,182 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4B435F-613A-4850-9FC0-F2F9789EE724}">
+  <dimension ref="C5:J26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="3:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J7" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="3:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="F10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="F11" s="11"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="F12" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="16" spans="3:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="I16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="3:10" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="I18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="I20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="I22" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="3">
+        <f>+D22+J22</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="7">
+        <f>+F25/100</f>
+        <v>0.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="I20:J20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0630C115-AA6F-40AF-B72A-E65D695AB9D5}">
   <dimension ref="C5:J25"/>
   <sheetViews>
@@ -1781,7 +2096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FFD6CFD-7DA4-4C12-A381-B83F2D61EB4F}">
   <dimension ref="B2:N21"/>
   <sheetViews>
